--- a/hw1/multi_asset_etf_data.xlsx
+++ b/hw1/multi_asset_etf_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliottgordon/Documents/UChicago/Summer 2025/FINM 25000/finm-25000-a4-repository/hw1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2980AF-B419-B247-B280-444FAE3EA2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69093B31-CACB-4A4E-8563-9D133A6E3A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34340" yWindow="-8840" windowWidth="18980" windowHeight="20800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34520" yWindow="-7840" windowWidth="16860" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14986,7 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y10" sqref="Y4:AB10"/>
     </sheetView>
   </sheetViews>
